--- a/docs/source/recursos/pec_porcino/tabla_por_exclusion.xlsx
+++ b/docs/source/recursos/pec_porcino/tabla_por_exclusion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LANCIS\Dropbox (LANCIS)\FOMIX\fmx_estudio_tecnico\diagnostico\talleres\sphinx\docs\source\recursos\pec_porcino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E2DF7A9-CDB7-4154-A2AE-B566C7D15DFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E80CB5E-FA64-4EE7-BD31-60F48BC25D5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7B5D915B-BE66-4268-B5B1-1C7D3279F295}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Agua (H2O, PRE y ACUI)</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>Tular (VT)</t>
-  </si>
-  <si>
-    <t>Urbano y Construido (ZU y AH)</t>
   </si>
   <si>
     <t>Vegetación Halófila Hidrófila (VHH)</t>
@@ -408,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C9D8D1-A1D8-4479-9584-025998442AB3}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B7"/>
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,10 +418,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -453,7 +450,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -461,18 +458,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/docs/source/recursos/pec_porcino/tabla_por_exclusion.xlsx
+++ b/docs/source/recursos/pec_porcino/tabla_por_exclusion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LANCIS\Dropbox (LANCIS)\FOMIX\fmx_estudio_tecnico\diagnostico\talleres\sphinx\docs\source\recursos\pec_porcino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E80CB5E-FA64-4EE7-BD31-60F48BC25D5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D414B81C-B526-4FF3-BA44-FA2C2103A84A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7B5D915B-BE66-4268-B5B1-1C7D3279F295}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Agua (H2O, PRE y ACUI)</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Categoría</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -405,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C9D8D1-A1D8-4479-9584-025998442AB3}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B6"/>
+      <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,6 +467,14 @@
         <v>4</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
